--- a/used_model/XGB/min/result.xlsx
+++ b/used_model/XGB/min/result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,40 +501,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['capital', 'DPO_window_10', 'share_holder_income', 'ADX_window_14_0', 'invest_cost', 'DPO_window_14', 'revenue', 'operation_income', 'CCI_window_10', 'cash_ratio']</t>
+          <t>['ADX_window_7_0', 'asset_turnover_ratio', 'from_invest', 'operation_income', 'pre_tax_profit', 'price_to_book', 'ADX_window_14_0', 'from_financial', 'Mass Index_window_fast_9', 'earnings_yield']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'max_depth': 7, 'learning_rate': 0.09151447701041458, 'min_child_weight': 1, 'subsample': 0.6587985028641323, 'colsample_bytree': 0.9434062787935138}</t>
+          <t>{'max_depth': 4, 'learning_rate': 0.09413385866779019, 'min_child_weight': 9, 'subsample': 0.6823770851151008, 'colsample_bytree': 0.7783916694294291}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.2387526241631627</v>
+        <v>-0.4015021896374522</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.92977786810452</v>
+        <v>-20.60519672255661</v>
       </c>
       <c r="F2" t="n">
-        <v>49.96710679063259</v>
+        <v>51.32025989985921</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3727124981556172</v>
+        <v>-0.549834333071236</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.007510562747484499</v>
+        <v>-0.02093598529014061</v>
       </c>
       <c r="I2" t="n">
-        <v>6.440545808966862</v>
+        <v>9.564785702465663</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.001080739125738025</v>
+        <v>-0.0004095203399253565</v>
       </c>
       <c r="K2" t="n">
-        <v>-77.29064279110598</v>
+        <v>-63.06144678669866</v>
       </c>
       <c r="L2" t="n">
-        <v>1.000036922497226</v>
+        <v>0.6215484848543593</v>
       </c>
     </row>
     <row r="3">
@@ -543,40 +543,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['debt_to_equity_ratio', 'invest_cost', 'capital', 'ADX_window_10_0', 'revenue', 'price_to_book', 'fixed_asset', 'EMA_window_9', 'CCI_window_10', 'DPO_window_14']</t>
+          <t>['pre_tax_profit', 'from_sale', 'operation_income', 'share_holder_income', 'asset_turnover_ratio', 'from_invest', 'DPO_window_10', 'ADX_window_7_2', 'revenue', 'CCI_window_10']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'max_depth': 7, 'learning_rate': 0.06036902518635811, 'min_child_weight': 1, 'subsample': 0.8855068949068435, 'colsample_bytree': 0.3585691218113685}</t>
+          <t>{'max_depth': 6, 'learning_rate': 0.09821729802278978, 'min_child_weight': 1, 'subsample': 0.5876816412709321, 'colsample_bytree': 0.3815546477719676}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.340041383808192</v>
+        <v>0.1491271740283203</v>
       </c>
       <c r="E3" t="n">
-        <v>452.0684268176307</v>
+        <v>8.940503031286418</v>
       </c>
       <c r="F3" t="n">
-        <v>54.20457837239283</v>
+        <v>59.95220582392684</v>
       </c>
       <c r="G3" t="n">
-        <v>13.09717177577964</v>
+        <v>0.2155779397904754</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1033866410871385</v>
+        <v>0.0105779732977832</v>
       </c>
       <c r="I3" t="n">
-        <v>40.72457442164993</v>
+        <v>4.769917331187358</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01207560887422192</v>
+        <v>0.0007001235475272678</v>
       </c>
       <c r="K3" t="n">
-        <v>-26.21510297482858</v>
+        <v>-51.07565868987165</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9064099075366243</v>
+        <v>0.97562381068844</v>
       </c>
     </row>
   </sheetData>
